--- a/Documents/ProjectSchedule.xlsx
+++ b/Documents/ProjectSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30060241\OneDrive - TAFE\Desktop\Repo\Retake Intro to Game Design AT01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30060241\Desktop\Git Repos\Retake-Intro-to-Game-Design-AT01\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0953BC5C-60B6-4BCC-B4C6-04460542F151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9A8D60-1065-4E18-B471-A8AD27B0C76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3240" windowWidth="18165" windowHeight="10605" xr2:uid="{01B4B5EA-DCC9-4FD0-AF2F-BCE95D12D0D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01B4B5EA-DCC9-4FD0-AF2F-BCE95D12D0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,7 +120,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,9 +173,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,93 +496,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1038B004-758D-4040-855D-03EEF9849BDC}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
